--- a/Analytics/F1/Goalmins_f1.xlsx
+++ b/Analytics/F1/Goalmins_f1.xlsx
@@ -76,67 +76,67 @@
     <t>18</t>
   </si>
   <si>
+    <t>Lyon</t>
+  </si>
+  <si>
     <t>Paris SG</t>
   </si>
   <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM(TGM)</t>
   </si>
   <si>
-    <t>SUM(TGM) / 34</t>
+    <t>SUM(TGM) / 10</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>3071.0</v>
+        <v>1181.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>2999.0</v>
+        <v>1103.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>2740.0</v>
+        <v>951.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>2603.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>2500.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>2463.0</v>
+        <v>820.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>2462.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>2383.0</v>
+        <v>777.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>2273.0</v>
+        <v>670.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>2203.0</v>
+        <v>669.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>2137.0</v>
+        <v>663.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>2052.0</v>
+        <v>622.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>1911.0</v>
+        <v>616.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>1907.0</v>
+        <v>587.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>1868.0</v>
+        <v>545.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>1821.0</v>
+        <v>476.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>1773.0</v>
+        <v>456.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>1671.0</v>
+        <v>244.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>3123.0</v>
+        <v>1237.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>2863.0</v>
+        <v>1114.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>2667.0</v>
+        <v>1042.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>2560.0</v>
+        <v>990.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>2484.0</v>
+        <v>916.0</v>
       </c>
     </row>
     <row r="7">
@@ -479,7 +479,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>2432.0</v>
+        <v>909.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>2410.0</v>
+        <v>793.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>2393.0</v>
+        <v>793.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>2347.0</v>
+        <v>683.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>2180.0</v>
+        <v>616.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>2085.0</v>
+        <v>611.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>2044.0</v>
+        <v>546.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>2042.0</v>
+        <v>461.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>1885.0</v>
+        <v>458.0</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>1873.0</v>
+        <v>455.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>1873.0</v>
+        <v>449.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>1836.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="19">
@@ -611,7 +611,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>1740.0</v>
+        <v>420.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>5603.0</v>
+        <v>1896.0</v>
       </c>
       <c r="D2" t="n">
-        <v>164.7941176470588</v>
+        <v>189.6</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>5464.0</v>
+        <v>1859.0</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7058823529412</v>
+        <v>185.9</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>5270.0</v>
+        <v>1819.0</v>
       </c>
       <c r="D4" t="n">
-        <v>155.0</v>
+        <v>181.9</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>5041.0</v>
+        <v>1797.0</v>
       </c>
       <c r="D5" t="n">
-        <v>148.26470588235293</v>
+        <v>179.7</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>5030.0</v>
+        <v>1774.0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.94117647058823</v>
+        <v>177.4</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>4563.0</v>
+        <v>1590.0</v>
       </c>
       <c r="D7" t="n">
-        <v>134.2058823529412</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>4544.0</v>
+        <v>1577.0</v>
       </c>
       <c r="D8" t="n">
-        <v>133.64705882352942</v>
+        <v>157.7</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>4484.0</v>
+        <v>1562.0</v>
       </c>
       <c r="D9" t="n">
-        <v>131.88235294117646</v>
+        <v>156.2</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>4381.0</v>
+        <v>1463.0</v>
       </c>
       <c r="D10" t="n">
-        <v>128.85294117647058</v>
+        <v>146.3</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>4352.0</v>
+        <v>1365.0</v>
       </c>
       <c r="D11" t="n">
-        <v>128.0</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>4336.0</v>
+        <v>1358.0</v>
       </c>
       <c r="D12" t="n">
-        <v>127.52941176470588</v>
+        <v>135.8</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>4321.0</v>
+        <v>1352.0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.08823529411765</v>
+        <v>135.2</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>4205.0</v>
+        <v>1275.0</v>
       </c>
       <c r="D14" t="n">
-        <v>123.67647058823529</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="15">
@@ -829,10 +829,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>4202.0</v>
+        <v>1220.0</v>
       </c>
       <c r="D15" t="n">
-        <v>123.58823529411765</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>4146.0</v>
+        <v>1112.0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.94117647058823</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>4137.0</v>
+        <v>1061.0</v>
       </c>
       <c r="D17" t="n">
-        <v>121.67647058823529</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>4088.0</v>
+        <v>1006.0</v>
       </c>
       <c r="D18" t="n">
-        <v>120.23529411764706</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="19">
@@ -885,10 +885,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>3507.0</v>
+        <v>790.0</v>
       </c>
       <c r="D19" t="n">
-        <v>103.1470588235294</v>
+        <v>79.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/F1/Goalmins_f1.xlsx
+++ b/Analytics/F1/Goalmins_f1.xlsx
@@ -76,58 +76,58 @@
     <t>18</t>
   </si>
   <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>Paris SG</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Le Havre</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>1103.0</v>
+        <v>1390.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>951.0</v>
+        <v>1389.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>900.0</v>
+        <v>1329.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>858.0</v>
+        <v>1262.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>820.0</v>
+        <v>1257.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>800.0</v>
+        <v>1254.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>777.0</v>
+        <v>1113.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>670.0</v>
+        <v>1038.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>669.0</v>
+        <v>952.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>663.0</v>
+        <v>936.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>622.0</v>
+        <v>926.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>616.0</v>
+        <v>909.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>587.0</v>
+        <v>881.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>545.0</v>
+        <v>880.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>476.0</v>
+        <v>847.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>456.0</v>
+        <v>829.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>244.0</v>
+        <v>716.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.0</v>
+        <v>1755.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>1114.0</v>
+        <v>1477.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>1042.0</v>
+        <v>1471.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>990.0</v>
+        <v>1276.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>916.0</v>
+        <v>1092.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>909.0</v>
+        <v>1086.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>793.0</v>
+        <v>1070.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>793.0</v>
+        <v>1043.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>683.0</v>
+        <v>1034.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>616.0</v>
+        <v>1026.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>611.0</v>
+        <v>1024.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>546.0</v>
+        <v>1009.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>461.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>458.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>455.0</v>
+        <v>886.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>449.0</v>
+        <v>823.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>445.0</v>
+        <v>801.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>420.0</v>
+        <v>696.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>1896.0</v>
+        <v>2664.0</v>
       </c>
       <c r="D2" t="n">
-        <v>189.6</v>
+        <v>266.4</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>1859.0</v>
+        <v>2586.0</v>
       </c>
       <c r="D3" t="n">
-        <v>185.9</v>
+        <v>258.6</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>1819.0</v>
+        <v>2482.0</v>
       </c>
       <c r="D4" t="n">
-        <v>181.9</v>
+        <v>248.2</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>1797.0</v>
+        <v>2415.0</v>
       </c>
       <c r="D5" t="n">
-        <v>179.7</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>1774.0</v>
+        <v>2397.0</v>
       </c>
       <c r="D6" t="n">
-        <v>177.4</v>
+        <v>239.7</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>1590.0</v>
+        <v>2363.0</v>
       </c>
       <c r="D7" t="n">
-        <v>159.0</v>
+        <v>236.3</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>1577.0</v>
+        <v>2314.0</v>
       </c>
       <c r="D8" t="n">
-        <v>157.7</v>
+        <v>231.4</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>1562.0</v>
+        <v>2263.0</v>
       </c>
       <c r="D9" t="n">
-        <v>156.2</v>
+        <v>226.3</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>1463.0</v>
+        <v>2193.0</v>
       </c>
       <c r="D10" t="n">
-        <v>146.3</v>
+        <v>219.3</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>1365.0</v>
+        <v>2165.0</v>
       </c>
       <c r="D11" t="n">
-        <v>136.5</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1358.0</v>
+        <v>2137.0</v>
       </c>
       <c r="D12" t="n">
-        <v>135.8</v>
+        <v>213.7</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>1352.0</v>
+        <v>1958.0</v>
       </c>
       <c r="D13" t="n">
-        <v>135.2</v>
+        <v>195.8</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>1275.0</v>
+        <v>1924.0</v>
       </c>
       <c r="D14" t="n">
-        <v>127.5</v>
+        <v>192.4</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>1220.0</v>
+        <v>1899.0</v>
       </c>
       <c r="D15" t="n">
-        <v>122.0</v>
+        <v>189.9</v>
       </c>
     </row>
     <row r="16">
@@ -843,10 +843,10 @@
         <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>1112.0</v>
+        <v>1867.0</v>
       </c>
       <c r="D16" t="n">
-        <v>111.2</v>
+        <v>186.7</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>1061.0</v>
+        <v>1753.0</v>
       </c>
       <c r="D17" t="n">
-        <v>106.1</v>
+        <v>175.3</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>1006.0</v>
+        <v>1733.0</v>
       </c>
       <c r="D18" t="n">
-        <v>100.6</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>790.0</v>
+        <v>1703.0</v>
       </c>
       <c r="D19" t="n">
-        <v>79.0</v>
+        <v>170.3</v>
       </c>
     </row>
   </sheetData>
